--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\aiden\Code\capstone1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75DF826-BA92-44B9-92ED-F0405630EA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D2DAA7-6633-469E-BA0E-FC59360E2198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,19 +51,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>image_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thoughts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use card image only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -481,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E26"/>
+  <dimension ref="B3:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -527,53 +515,50 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
+      <c r="E9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -581,28 +566,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -610,47 +595,47 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>24</v>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
@@ -658,15 +643,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
